--- a/lab04/analysis3.xlsx
+++ b/lab04/analysis3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jantar\uni-data-warehouse\lab04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA6E58A-77A4-4DC6-A676-B7805EC53631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4105C792-7AEE-4C04-9AC6-83C4970A8D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0A86CA9-CD28-4DF8-96E5-E38F6DA808DE}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="153" r:id="rId2"/>
+    <pivotCache cacheId="1" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -599,13 +599,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -703,7 +702,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Liczba transakcji i udzielonych zniżek dla sprzedawców</a:t>
+              <a:t>Liczba sprzedanych jednostek i suma udzielonych zniżek dla sprzedawców</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1471,6 +1470,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2128227264"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2253,7 +2253,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCD1B936-5913-4025-8BCE-FB8E94B3CED9}" name="PivotTable2" cacheId="153" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCD1B936-5913-4025-8BCE-FB8E94B3CED9}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
   <location ref="A1:C20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" sortType="descending" defaultAttributeDrillState="1">
@@ -2772,7 +2772,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,10 +2797,10 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>27229</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>43.40999999999994</v>
       </c>
     </row>
@@ -2808,10 +2808,10 @@
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>23058</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>32.139999999999937</v>
       </c>
     </row>
@@ -2819,10 +2819,10 @@
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>15397</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>29.379999999999942</v>
       </c>
     </row>
@@ -2830,10 +2830,10 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>27051</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>28.169999999999927</v>
       </c>
     </row>
@@ -2841,10 +2841,10 @@
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>16431</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>28.049999999999915</v>
       </c>
     </row>
@@ -2852,10 +2852,10 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>26231</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>27.319999999999922</v>
       </c>
     </row>
@@ -2863,10 +2863,10 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>15220</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>25.809999999999956</v>
       </c>
     </row>
@@ -2874,10 +2874,10 @@
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>14085</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>20.329999999999984</v>
       </c>
     </row>
@@ -2885,10 +2885,10 @@
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>7033</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>18.249999999999986</v>
       </c>
     </row>
@@ -2896,10 +2896,10 @@
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>11544</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>18.179999999999982</v>
       </c>
     </row>
@@ -2907,10 +2907,10 @@
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>8172</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>16.169999999999987</v>
       </c>
     </row>
@@ -2918,10 +2918,10 @@
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>4123</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>16.04</v>
       </c>
     </row>
@@ -2929,10 +2929,10 @@
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>7360</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>12.150000000000002</v>
       </c>
     </row>
@@ -2940,10 +2940,10 @@
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>5650</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>10.240000000000007</v>
       </c>
     </row>
@@ -2951,10 +2951,10 @@
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>3095</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>8.1099999999999941</v>
       </c>
     </row>
@@ -2962,10 +2962,10 @@
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>825</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>5.3200000000000012</v>
       </c>
     </row>
@@ -2973,10 +2973,10 @@
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>2012</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>3.7799999999999994</v>
       </c>
     </row>
@@ -2984,10 +2984,10 @@
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>60398</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>0</v>
       </c>
     </row>
@@ -2995,10 +2995,10 @@
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>274914</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>342.84999999999445</v>
       </c>
     </row>

--- a/lab04/analysis3.xlsx
+++ b/lab04/analysis3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jantar\uni-data-warehouse\lab04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4105C792-7AEE-4C04-9AC6-83C4970A8D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F956DF-3278-4E6E-9C6F-0F90C201874B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0A86CA9-CD28-4DF8-96E5-E38F6DA808DE}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId2"/>
+    <pivotCache cacheId="57" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Row Labels</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>Unit Price Discount</t>
+  </si>
+  <si>
+    <t>Sprzedawca</t>
+  </si>
+  <si>
+    <t>Liczba sprzedanych jednostek</t>
+  </si>
+  <si>
+    <t>Zniżka</t>
+  </si>
+  <si>
+    <t>AvgUnitPriceDiscount</t>
   </si>
 </sst>
 </file>
@@ -599,12 +611,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -650,7 +663,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -797,11 +814,179 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1012,6 +1197,316 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpDAC0!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unit Price Discount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmpDAC0!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Linda Mitchell</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Michael Blythe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shu Ito</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jillian Carson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tsvi Reiter</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jae Pak</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>José Saraiva</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ranjit Varkey Chudukatil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rachel Valdez</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Garrett Vargas</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>David Campbell</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Lynn Tsoflias</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pamela Ansman-Wolfe</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tete Mensa-Annan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Stephen Jiang</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Syed Abbas</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Amy Alberts</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Unknown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpDAC0!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>43.40999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.139999999999937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.379999999999942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.169999999999927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.049999999999915</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.319999999999922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.809999999999956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.329999999999984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.249999999999986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.179999999999982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.169999999999987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.240000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1099999999999941</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8FAE-4DA3-8919-979D058F37B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpDAC0!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AvgUnitPriceDiscount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmpDAC0!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Linda Mitchell</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Michael Blythe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shu Ito</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jillian Carson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tsvi Reiter</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jae Pak</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>José Saraiva</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ranjit Varkey Chudukatil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rachel Valdez</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Garrett Vargas</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>David Campbell</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Lynn Tsoflias</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pamela Ansman-Wolfe</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tete Mensa-Annan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Stephen Jiang</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Syed Abbas</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Amy Alberts</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Unknown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpDAC0!$D$2:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-158F-43BC-A72D-D14111FD2190}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1025,180 +1520,6 @@
         <c:axId val="2017172304"/>
         <c:axId val="2135194144"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tmpDAC0!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unit Price Discount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>tmpDAC0!$A$2:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>Linda Mitchell</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Michael Blythe</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Shu Ito</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Jillian Carson</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Tsvi Reiter</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jae Pak</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>José Saraiva</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ranjit Varkey Chudukatil</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Rachel Valdez</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Garrett Vargas</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>David Campbell</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Lynn Tsoflias</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Pamela Ansman-Wolfe</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Tete Mensa-Annan</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Stephen Jiang</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Syed Abbas</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Amy Alberts</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Unknown</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tmpDAC0!$C$2:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>43.40999999999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.139999999999937</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.379999999999942</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.169999999999927</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28.049999999999915</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27.319999999999922</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.809999999999956</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.329999999999984</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.249999999999986</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.179999999999982</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.169999999999987</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.04</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.150000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.240000000000007</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.1099999999999941</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.3200000000000012</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.7799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8FAE-4DA3-8919-979D058F37B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2128224384"/>
-        <c:axId val="2128227264"/>
-      </c:lineChart>
       <c:catAx>
         <c:axId val="2017172304"/>
         <c:scaling>
@@ -1292,7 +1613,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Liczba transakcji</a:t>
+                  <a:t>Liczba sprzedanych jednostek</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1361,121 +1682,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="2128227264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>Suma zniżek</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2128224384"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="2128224384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128227264"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2122,16 +2328,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2160,9 +2366,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jantar" refreshedDate="45758.728330208331" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{57C55A76-2E03-42EC-927F-4EE69CDCD018}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jantar" refreshedDate="45758.793368981482" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{57C55A76-2E03-42EC-927F-4EE69CDCD018}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
+  <cacheFields count="4">
     <cacheField name="[DIM SALESPERSON].[Full Name].[Full Name]" caption="Full Name" numFmtId="0" hierarchy="16" level="1">
       <sharedItems count="18">
         <s v="[DIM SALESPERSON].[Full Name].&amp;[Amy Alberts]" c="Amy Alberts"/>
@@ -2187,8 +2393,9 @@
     </cacheField>
     <cacheField name="[Measures].[Order Qty]" caption="Order Qty" numFmtId="0" hierarchy="22" level="32767"/>
     <cacheField name="[Measures].[Unit Price Discount]" caption="Unit Price Discount" numFmtId="0" hierarchy="23" level="32767"/>
+    <cacheField name="[Measures].[AvgUnitPriceDiscount]" caption="AvgUnitPriceDiscount" numFmtId="0" hierarchy="26" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="26">
+  <cacheHierarchies count="27">
     <cacheHierarchy uniqueName="[DIM CUSTOMER].[City]" caption="City" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[City].[All]" allUniqueName="[DIM CUSTOMER].[City].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM CUSTOMER].[Country Region Code]" caption="Country Region Code" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Country Region Code].[All]" allUniqueName="[DIM CUSTOMER].[Country Region Code].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM CUSTOMER].[Customer ID]" caption="Customer ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Customer ID].[All]" allUniqueName="[DIM CUSTOMER].[Customer ID].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
@@ -2228,6 +2435,11 @@
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Line Total]" caption="Line Total" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[FACT SALES Count]" caption="FACT SALES Count" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[AvgUnitPriceDiscount]" caption="AvgUnitPriceDiscount" measure="1" displayFolder="" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="4">
@@ -2253,9 +2465,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCD1B936-5913-4025-8BCE-FB8E94B3CED9}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
-  <location ref="A1:C20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCD1B936-5913-4025-8BCE-FB8E94B3CED9}" name="PivotTable2" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
+  <location ref="A1:D20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" sortType="descending" defaultAttributeDrillState="1">
       <items count="19">
         <item x="0"/>
@@ -2288,6 +2500,7 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
@@ -2356,19 +2569,23 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
   </colItems>
-  <dataFields count="2">
+  <dataFields count="3">
     <dataField fld="1" baseField="0" baseItem="0"/>
-    <dataField fld="2" baseField="0" baseItem="0"/>
+    <dataField fld="2" baseField="0" baseItem="13"/>
+    <dataField fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="5">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -2405,8 +2622,17 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
-  <pivotHierarchies count="26">
+  <pivotHierarchies count="27">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -2433,6 +2659,7 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
@@ -2450,6 +2677,18 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7327A48-1B06-4C2C-A5F7-8FB1C68C33BB}" name="Table1" displayName="Table1" ref="P6:R24" totalsRowShown="0">
+  <autoFilter ref="P6:R24" xr:uid="{A7327A48-1B06-4C2C-A5F7-8FB1C68C33BB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{21D6AB28-D940-4726-828A-E41CBA467C3D}" name="Sprzedawca" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{033BBE4D-C03F-4DCE-9E6D-388ECBD853C8}" name="Liczba sprzedanych jednostek"/>
+    <tableColumn id="3" xr3:uid="{B544918F-4B7B-4AA4-A21B-B4B17A8B4243}" name="Zniżka"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2769,20 +3008,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64431DA0-6817-41AF-97D1-8D395FF974EA}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2792,218 +3034,460 @@
       <c r="C1" t="s">
         <v>21</v>
       </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>27229</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>43.40999999999994</v>
       </c>
+      <c r="D2" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>23058</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>32.139999999999937</v>
       </c>
+      <c r="D3" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>15397</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>29.379999999999942</v>
       </c>
+      <c r="D4" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>27051</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>28.169999999999927</v>
       </c>
+      <c r="D5" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>16431</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>28.049999999999915</v>
       </c>
+      <c r="D6" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>26231</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>27.319999999999922</v>
       </c>
+      <c r="D7" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>27229</v>
+      </c>
+      <c r="R7">
+        <v>43.40999999999994</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>15220</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>25.809999999999956</v>
       </c>
+      <c r="D8" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <v>23058</v>
+      </c>
+      <c r="R8">
+        <v>32.139999999999937</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>14085</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>20.329999999999984</v>
       </c>
+      <c r="D9" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9">
+        <v>15397</v>
+      </c>
+      <c r="R9">
+        <v>29.379999999999942</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>7033</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>18.249999999999986</v>
       </c>
+      <c r="D10" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>27051</v>
+      </c>
+      <c r="R10">
+        <v>28.169999999999927</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>11544</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>18.179999999999982</v>
       </c>
+      <c r="D11" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11">
+        <v>16431</v>
+      </c>
+      <c r="R11">
+        <v>28.049999999999915</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>8172</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>16.169999999999987</v>
       </c>
+      <c r="D12" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>26231</v>
+      </c>
+      <c r="R12">
+        <v>27.319999999999922</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>4123</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>16.04</v>
       </c>
+      <c r="D13" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>15220</v>
+      </c>
+      <c r="R13">
+        <v>25.809999999999956</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>7360</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>12.150000000000002</v>
       </c>
+      <c r="D14" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <v>14085</v>
+      </c>
+      <c r="R14">
+        <v>20.329999999999984</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>5650</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>10.240000000000007</v>
       </c>
+      <c r="D15" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15">
+        <v>7033</v>
+      </c>
+      <c r="R15">
+        <v>18.249999999999986</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>3095</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>8.1099999999999941</v>
       </c>
+      <c r="D16" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>11544</v>
+      </c>
+      <c r="R16">
+        <v>18.179999999999982</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>825</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>5.3200000000000012</v>
       </c>
+      <c r="D17" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>8172</v>
+      </c>
+      <c r="R17">
+        <v>16.169999999999987</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>2012</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>3.7799999999999994</v>
       </c>
+      <c r="D18" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18">
+        <v>4123</v>
+      </c>
+      <c r="R18">
+        <v>16.04</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>60398</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>0</v>
       </c>
+      <c r="D19" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19">
+        <v>7360</v>
+      </c>
+      <c r="R19">
+        <v>12.150000000000002</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>274914</v>
       </c>
-      <c r="C20">
-        <v>342.84999999999445</v>
+      <c r="C20" s="3">
+        <v>342.8499999999994</v>
+      </c>
+      <c r="D20" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20">
+        <v>5650</v>
+      </c>
+      <c r="R20">
+        <v>10.240000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21">
+        <v>3095</v>
+      </c>
+      <c r="R21">
+        <v>8.1099999999999941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22">
+        <v>825</v>
+      </c>
+      <c r="R22">
+        <v>5.3200000000000012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>2012</v>
+      </c>
+      <c r="R23">
+        <v>3.7799999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24">
+        <v>60398</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>